--- a/各种单面推把记录.xlsx
+++ b/各种单面推把记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="8310" windowHeight="1455" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="8310" windowHeight="1455" tabRatio="371" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="神灵庙H妖梦" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="294">
   <si>
     <t>火力</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,6 +327,864 @@
   </si>
   <si>
     <t>信仰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信仰</t>
+  </si>
+  <si>
+    <t>信仰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数</t>
+  </si>
+  <si>
+    <t>分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前半道中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道中一非</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见穰子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道中二非</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一非一雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一非二雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二非一雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YMR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>667xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1313xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1502xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>636xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1277xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1466xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zxl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>668xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1314xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1503xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1631xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>646xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1290xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1481xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前半道中</t>
+  </si>
+  <si>
+    <t>中Boss</t>
+  </si>
+  <si>
+    <t>后半道中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一非</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二非一雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>794xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3045xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3632xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3939xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2416xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4674xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5264xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5569xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2395xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4660xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5248xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5553xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4677xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5270xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5580xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前半道中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开幕（打掉两只大蝴蝶）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一非</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二非一雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三非一雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3080xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4032xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6353xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8088xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9057xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8930xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9877xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12209xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13941xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14899xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二只大蝴蝶击破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝点乌鸦阵+小妖精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三兄贵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道中结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一非</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二非</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三非一雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17678xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21195xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24455xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33631xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36019xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38554xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39719xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8943xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9899xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12245xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13990xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14957xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15680xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17741xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21072xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24561xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33779xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36178xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38707xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8979xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9939xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12289xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14043xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15016xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17806xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21098xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25683xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33872xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36277xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38817xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一只大蝴蝶出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一段瀑布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椛一雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椛二雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击破吃完道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增援一雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增援结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17141xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19245xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17203xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19343xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17267xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24598xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCB</t>
+  </si>
+  <si>
+    <t>SCB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差值(max)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信仰(累加)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-410(2590)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3820(冲上去)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1980(4980)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1549xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>690(710)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一段蝴蝶阵一雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小妖精阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二段蝴蝶阵扔雷瞬间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见早苗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝴蝶阵一雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大蝴蝶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道中结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一非</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二非</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三非一雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keroko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差值</t>
+  </si>
+  <si>
+    <t>48877xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57032xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60625xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66407xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73480xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77726xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81478xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2089xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>545360(545590)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3719xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>560800(561110)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5394xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8847xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18106xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20514xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23052xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4240(4540)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830(6060)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6970(7070)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4700(4970)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2330(4350)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>269999000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ymr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>683081330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zxl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>682988050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>685552580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道中结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9163xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17417xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21019xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26729xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33681xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37938xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41700xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15390xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一非</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二非</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -351,7 +1209,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,6 +1240,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -397,7 +1285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -448,6 +1336,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1016,7 +1934,7 @@
         <v>2722179630</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1038,7 +1956,7 @@
       <c r="O8" s="8"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="8">
         <v>49790</v>
@@ -1082,7 +2000,7 @@
         <v>2815540520</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="8">
         <v>49900</v>
@@ -1124,7 +2042,7 @@
       </c>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="8">
         <v>50440</v>
@@ -2007,89 +2925,2822 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:W89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="20" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="22" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="22" customWidth="1"/>
+    <col min="14" max="14" width="12.75" style="22" customWidth="1"/>
+    <col min="15" max="15" width="13.75" style="22" customWidth="1"/>
+    <col min="16" max="16" width="10.375" style="24" customWidth="1"/>
+    <col min="17" max="17" width="10.75" style="24" customWidth="1"/>
+    <col min="18" max="18" width="9.875" style="24" customWidth="1"/>
+    <col min="19" max="19" width="10.375" style="24" customWidth="1"/>
+    <col min="20" max="23" width="9" style="26"/>
+    <col min="24" max="16384" width="9" style="18"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="15" t="s">
+      <c r="N1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="O1" s="17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="P1" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="15"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="P3" s="15"/>
+      <c r="B3" s="21">
+        <v>138920</v>
+      </c>
+      <c r="C3" s="21">
+        <v>269860</v>
+      </c>
+      <c r="D3" s="21">
+        <v>501910</v>
+      </c>
+      <c r="E3" s="21">
+        <v>676180</v>
+      </c>
+      <c r="F3" s="21">
+        <v>974780</v>
+      </c>
+      <c r="G3" s="21">
+        <v>999990</v>
+      </c>
+      <c r="I3" s="21">
+        <v>15934670</v>
+      </c>
+      <c r="J3" s="21">
+        <v>42385420</v>
+      </c>
+      <c r="K3" s="21">
+        <v>97627030</v>
+      </c>
+      <c r="L3" s="21">
+        <v>242311480</v>
+      </c>
+      <c r="M3" s="21">
+        <v>457015350</v>
+      </c>
+      <c r="N3" s="21">
+        <v>683697050</v>
+      </c>
+      <c r="O3" s="21">
+        <f>SUM(I3:N3)</f>
+        <v>1538971000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="17"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="H5" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="T5" s="26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A6" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="S6" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="T6" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="U6" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="V6" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="W6" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A7" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="19">
+        <v>110000</v>
+      </c>
+      <c r="E7" s="20">
+        <v>110000</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="23">
+        <v>110000</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" s="22">
+        <v>110000</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q7" s="24">
+        <v>110000</v>
+      </c>
+      <c r="S7" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A8" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="19">
+        <v>620</v>
+      </c>
+      <c r="C8" s="19">
+        <v>110620</v>
+      </c>
+      <c r="D8" s="20">
+        <v>580</v>
+      </c>
+      <c r="E8" s="20">
+        <v>110580</v>
+      </c>
+      <c r="H8" s="23">
+        <v>620</v>
+      </c>
+      <c r="I8" s="23">
+        <v>110620</v>
+      </c>
+      <c r="L8" s="22">
+        <v>620</v>
+      </c>
+      <c r="M8" s="22">
+        <v>110620</v>
+      </c>
+      <c r="P8" s="24">
+        <v>620</v>
+      </c>
+      <c r="Q8" s="24">
+        <v>110620</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A9" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="19">
+        <v>1180</v>
+      </c>
+      <c r="C9" s="19">
+        <v>111800</v>
+      </c>
+      <c r="D9" s="20">
+        <v>1160</v>
+      </c>
+      <c r="E9" s="20">
+        <v>111760</v>
+      </c>
+      <c r="H9" s="23">
+        <v>1150</v>
+      </c>
+      <c r="I9" s="23">
+        <v>111770</v>
+      </c>
+      <c r="M9" s="22">
+        <v>111760</v>
+      </c>
+      <c r="P9" s="24">
+        <v>1180</v>
+      </c>
+      <c r="Q9" s="24">
+        <v>111800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A10" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="19">
+        <v>10600</v>
+      </c>
+      <c r="C10" s="19">
+        <v>122400</v>
+      </c>
+      <c r="D10" s="20">
+        <v>10600</v>
+      </c>
+      <c r="E10" s="20">
+        <v>122360</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="23">
+        <v>10600</v>
+      </c>
+      <c r="I10" s="23">
+        <v>122370</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="22">
+        <v>10600</v>
+      </c>
+      <c r="M10" s="22">
+        <v>122360</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="P10" s="24">
+        <v>10600</v>
+      </c>
+      <c r="Q10" s="24">
+        <v>122400</v>
+      </c>
+      <c r="S10" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A11" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="19">
+        <v>2600</v>
+      </c>
+      <c r="C11" s="19">
+        <v>125000</v>
+      </c>
+      <c r="D11" s="20">
+        <v>2600</v>
+      </c>
+      <c r="E11" s="20">
+        <v>124960</v>
+      </c>
+      <c r="H11" s="23">
+        <v>2450</v>
+      </c>
+      <c r="I11" s="23">
+        <v>124820</v>
+      </c>
+      <c r="L11" s="22">
+        <v>2480</v>
+      </c>
+      <c r="M11" s="22">
+        <v>124840</v>
+      </c>
+      <c r="P11" s="24">
+        <v>2480</v>
+      </c>
+      <c r="Q11" s="24">
+        <v>124880</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A12" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="19">
+        <v>2610</v>
+      </c>
+      <c r="C12" s="19">
+        <v>127610</v>
+      </c>
+      <c r="D12" s="20">
+        <v>2610</v>
+      </c>
+      <c r="E12" s="20">
+        <v>127570</v>
+      </c>
+      <c r="H12" s="23">
+        <v>2600</v>
+      </c>
+      <c r="I12" s="23">
+        <v>127420</v>
+      </c>
+      <c r="L12" s="22">
+        <v>2380</v>
+      </c>
+      <c r="M12" s="22">
+        <v>127220</v>
+      </c>
+      <c r="P12" s="24">
+        <v>2460</v>
+      </c>
+      <c r="Q12" s="24">
+        <v>127340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A13" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="19">
+        <v>2180</v>
+      </c>
+      <c r="C13" s="19">
+        <v>129790</v>
+      </c>
+      <c r="D13" s="20">
+        <v>2070</v>
+      </c>
+      <c r="E13" s="20">
+        <v>129640</v>
+      </c>
+      <c r="H13" s="23">
+        <v>1820</v>
+      </c>
+      <c r="I13" s="23">
+        <v>129240</v>
+      </c>
+      <c r="L13" s="22">
+        <v>2130</v>
+      </c>
+      <c r="M13" s="22">
+        <v>129350</v>
+      </c>
+      <c r="P13" s="24">
+        <v>2180</v>
+      </c>
+      <c r="Q13" s="24">
+        <v>129520</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A14" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="19">
+        <v>2380</v>
+      </c>
+      <c r="C14" s="19">
+        <v>132170</v>
+      </c>
+      <c r="D14" s="20">
+        <v>2130</v>
+      </c>
+      <c r="E14" s="20">
+        <v>131770</v>
+      </c>
+      <c r="F14" s="20">
+        <v>1218670</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="23">
+        <v>2050</v>
+      </c>
+      <c r="I14" s="23">
+        <v>131290</v>
+      </c>
+      <c r="J14" s="23">
+        <v>1219870</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="L14" s="22">
+        <v>2100</v>
+      </c>
+      <c r="M14" s="22">
+        <v>131450</v>
+      </c>
+      <c r="O14" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="P14" s="24">
+        <v>2380</v>
+      </c>
+      <c r="Q14" s="24">
+        <v>131900</v>
+      </c>
+      <c r="S14" s="24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A15" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="19">
+        <v>3510</v>
+      </c>
+      <c r="C15" s="19">
+        <v>135680</v>
+      </c>
+      <c r="D15" s="20">
+        <v>3070</v>
+      </c>
+      <c r="E15" s="20">
+        <v>134840</v>
+      </c>
+      <c r="H15" s="23">
+        <v>3180</v>
+      </c>
+      <c r="I15" s="23">
+        <v>134470</v>
+      </c>
+      <c r="L15" s="22">
+        <v>3460</v>
+      </c>
+      <c r="M15" s="22">
+        <v>134910</v>
+      </c>
+      <c r="P15" s="24">
+        <v>3510</v>
+      </c>
+      <c r="Q15" s="24">
+        <v>135410</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A16" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="19">
+        <v>2440</v>
+      </c>
+      <c r="C16" s="19">
+        <v>138120</v>
+      </c>
+      <c r="D16" s="20">
+        <v>2050</v>
+      </c>
+      <c r="E16" s="20">
+        <v>136890</v>
+      </c>
+      <c r="H16" s="23">
+        <v>2160</v>
+      </c>
+      <c r="I16" s="23">
+        <v>136630</v>
+      </c>
+      <c r="L16" s="22">
+        <v>2300</v>
+      </c>
+      <c r="M16" s="22">
+        <v>137210</v>
+      </c>
+      <c r="P16" s="24">
+        <v>2440</v>
+      </c>
+      <c r="Q16" s="24">
+        <v>137850</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A17" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="19">
+        <v>2030</v>
+      </c>
+      <c r="C17" s="19">
+        <v>140510</v>
+      </c>
+      <c r="D17" s="20">
+        <v>2030</v>
+      </c>
+      <c r="E17" s="20">
+        <v>138920</v>
+      </c>
+      <c r="F17" s="20">
+        <v>1250660</v>
+      </c>
+      <c r="G17" s="20">
+        <v>15934670</v>
+      </c>
+      <c r="H17" s="23">
+        <v>1830</v>
+      </c>
+      <c r="I17" s="23">
+        <v>138460</v>
+      </c>
+      <c r="J17" s="23">
+        <v>1258390</v>
+      </c>
+      <c r="K17" s="23">
+        <v>16301240</v>
+      </c>
+      <c r="L17" s="22">
+        <v>1670</v>
+      </c>
+      <c r="M17" s="22">
+        <v>138880</v>
+      </c>
+      <c r="O17" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="24">
+        <v>1910</v>
+      </c>
+      <c r="Q17" s="24">
+        <v>139760</v>
+      </c>
+      <c r="S17" s="24">
+        <v>16083760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A18" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A19" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="19">
+        <v>55150</v>
+      </c>
+      <c r="C19" s="19">
+        <v>195660</v>
+      </c>
+      <c r="D19" s="20">
+        <v>55000</v>
+      </c>
+      <c r="E19" s="20">
+        <v>193920</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="23">
+        <v>55100</v>
+      </c>
+      <c r="I19" s="23">
+        <v>193560</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="22">
+        <v>55100</v>
+      </c>
+      <c r="M19" s="22">
+        <v>193980</v>
+      </c>
+      <c r="O19" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" s="24">
+        <v>55150</v>
+      </c>
+      <c r="Q19" s="24">
+        <v>194910</v>
+      </c>
+      <c r="S19" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A20" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="19">
+        <v>250</v>
+      </c>
+      <c r="C20" s="19">
+        <v>195910</v>
+      </c>
+      <c r="D20" s="20">
+        <v>60</v>
+      </c>
+      <c r="E20" s="20">
+        <v>193980</v>
+      </c>
+      <c r="H20" s="23">
+        <v>250</v>
+      </c>
+      <c r="I20" s="23">
+        <v>193810</v>
+      </c>
+      <c r="L20" s="22">
+        <v>40</v>
+      </c>
+      <c r="M20" s="22">
+        <v>194020</v>
+      </c>
+      <c r="P20" s="24">
+        <v>220</v>
+      </c>
+      <c r="Q20" s="24">
+        <v>195130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A21" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="19">
+        <v>64170</v>
+      </c>
+      <c r="C21" s="19">
+        <v>260080</v>
+      </c>
+      <c r="D21" s="20">
+        <v>64020</v>
+      </c>
+      <c r="E21" s="20">
+        <v>258000</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="23">
+        <v>64100</v>
+      </c>
+      <c r="I21" s="23">
+        <v>257910</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="L21" s="22">
+        <v>64170</v>
+      </c>
+      <c r="M21" s="22">
+        <v>258190</v>
+      </c>
+      <c r="O21" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="P21" s="24">
+        <v>4100</v>
+      </c>
+      <c r="Q21" s="24">
+        <v>259230</v>
+      </c>
+      <c r="S21" s="24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A22" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="19">
+        <v>720</v>
+      </c>
+      <c r="C22" s="19">
+        <v>260800</v>
+      </c>
+      <c r="D22" s="20">
+        <v>670</v>
+      </c>
+      <c r="E22" s="20">
+        <v>258670</v>
+      </c>
+      <c r="H22" s="23">
+        <v>620</v>
+      </c>
+      <c r="I22" s="23">
+        <v>258530</v>
+      </c>
+      <c r="L22" s="22">
+        <v>670</v>
+      </c>
+      <c r="M22" s="22">
+        <v>258860</v>
+      </c>
+      <c r="P22" s="24">
+        <v>720</v>
+      </c>
+      <c r="Q22" s="24">
+        <v>259950</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A23" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="19">
+        <v>3080</v>
+      </c>
+      <c r="C23" s="19">
+        <v>263880</v>
+      </c>
+      <c r="D23" s="20">
+        <v>2980</v>
+      </c>
+      <c r="E23" s="20">
+        <v>261650</v>
+      </c>
+      <c r="F23" s="20">
+        <v>2979450</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="23">
+        <v>2670</v>
+      </c>
+      <c r="I23" s="23">
+        <v>261200</v>
+      </c>
+      <c r="J23" s="23">
+        <v>3009010</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="L23" s="22">
+        <v>3000</v>
+      </c>
+      <c r="M23" s="22">
+        <v>261860</v>
+      </c>
+      <c r="O23" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="P23" s="24">
+        <v>3080</v>
+      </c>
+      <c r="Q23" s="24">
+        <v>263030</v>
+      </c>
+      <c r="S23" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A24" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="19">
+        <v>2660</v>
+      </c>
+      <c r="C24" s="19">
+        <v>266540</v>
+      </c>
+      <c r="D24" s="20">
+        <v>2530</v>
+      </c>
+      <c r="E24" s="20">
+        <v>264180</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="I24" s="23">
+        <v>260790</v>
+      </c>
+      <c r="L24" s="22">
+        <v>2580</v>
+      </c>
+      <c r="M24" s="22">
+        <v>264440</v>
+      </c>
+      <c r="P24" s="24">
+        <v>2660</v>
+      </c>
+      <c r="Q24" s="24">
+        <v>265690</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A25" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="19">
+        <v>2560</v>
+      </c>
+      <c r="C25" s="19">
+        <v>269100</v>
+      </c>
+      <c r="D25" s="20">
+        <v>2050</v>
+      </c>
+      <c r="E25" s="20">
+        <v>266230</v>
+      </c>
+      <c r="H25" s="23">
+        <v>2560</v>
+      </c>
+      <c r="I25" s="23">
+        <v>263350</v>
+      </c>
+      <c r="L25" s="22">
+        <v>2340</v>
+      </c>
+      <c r="M25" s="22">
+        <v>266780</v>
+      </c>
+      <c r="P25" s="24">
+        <v>2130</v>
+      </c>
+      <c r="Q25" s="24">
+        <v>267820</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A26" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="19">
+        <v>1220</v>
+      </c>
+      <c r="C26" s="19">
+        <v>270320</v>
+      </c>
+      <c r="D26" s="20">
+        <v>1220</v>
+      </c>
+      <c r="E26" s="20">
+        <v>267450</v>
+      </c>
+      <c r="F26" s="20">
+        <v>3061410</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" s="23">
+        <v>1110</v>
+      </c>
+      <c r="I26" s="23">
+        <v>264460</v>
+      </c>
+      <c r="J26" s="23">
+        <v>3042240</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="L26" s="22">
+        <v>1060</v>
+      </c>
+      <c r="M26" s="22">
+        <v>267840</v>
+      </c>
+      <c r="O26" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="P26" s="24">
+        <v>1140</v>
+      </c>
+      <c r="Q26" s="24">
+        <v>268960</v>
+      </c>
+      <c r="S26" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A27" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="19">
+        <v>274140</v>
+      </c>
+      <c r="D27" s="20">
+        <v>2410</v>
+      </c>
+      <c r="E27" s="20">
+        <v>269860</v>
+      </c>
+      <c r="F27" s="20">
+        <v>2978080</v>
+      </c>
+      <c r="G27" s="20">
+        <v>42385420</v>
+      </c>
+      <c r="H27" s="23">
+        <v>3220</v>
+      </c>
+      <c r="I27" s="23">
+        <v>267680</v>
+      </c>
+      <c r="J27" s="23">
+        <v>2756840</v>
+      </c>
+      <c r="K27" s="23">
+        <v>58465070</v>
+      </c>
+      <c r="L27" s="22">
+        <v>2300</v>
+      </c>
+      <c r="M27" s="22">
+        <v>270140</v>
+      </c>
+      <c r="O27" s="22">
+        <v>58449220</v>
+      </c>
+      <c r="P27" s="24">
+        <v>3820</v>
+      </c>
+      <c r="Q27" s="24">
+        <v>272080</v>
+      </c>
+      <c r="S27" s="24">
+        <v>58652840</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A28" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A29" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="19">
+        <v>40000</v>
+      </c>
+      <c r="C29" s="19">
+        <v>314140</v>
+      </c>
+      <c r="D29" s="20">
+        <v>39680</v>
+      </c>
+      <c r="E29" s="20">
+        <v>309540</v>
+      </c>
+      <c r="H29" s="23">
+        <v>40000</v>
+      </c>
+      <c r="I29" s="23">
+        <v>307680</v>
+      </c>
+      <c r="L29" s="22">
+        <v>39820</v>
+      </c>
+      <c r="M29" s="22">
+        <v>309960</v>
+      </c>
+      <c r="P29" s="24">
+        <v>40000</v>
+      </c>
+      <c r="Q29" s="24">
+        <v>312080</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A30" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="19">
+        <v>60400</v>
+      </c>
+      <c r="C30" s="19">
+        <v>374540</v>
+      </c>
+      <c r="D30" s="20">
+        <v>60400</v>
+      </c>
+      <c r="E30" s="20">
+        <v>369940</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="H30" s="23">
+        <v>60400</v>
+      </c>
+      <c r="I30" s="23">
+        <v>368080</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="L30" s="22">
+        <v>60400</v>
+      </c>
+      <c r="M30" s="22">
+        <v>370360</v>
+      </c>
+      <c r="O30" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="P30" s="24">
+        <v>60400</v>
+      </c>
+      <c r="Q30" s="24">
+        <v>372480</v>
+      </c>
+      <c r="S30" s="24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A31" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="19">
+        <v>3440</v>
+      </c>
+      <c r="C31" s="19">
+        <v>377980</v>
+      </c>
+      <c r="D31" s="20">
+        <v>3340</v>
+      </c>
+      <c r="E31" s="20">
+        <v>373280</v>
+      </c>
+      <c r="F31" s="20">
+        <v>5411260</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="H31" s="23">
+        <v>3140</v>
+      </c>
+      <c r="I31" s="23">
+        <v>371220</v>
+      </c>
+      <c r="J31" s="23">
+        <v>5382740</v>
+      </c>
+      <c r="K31" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="L31" s="22">
+        <v>3250</v>
+      </c>
+      <c r="M31" s="22">
+        <v>373610</v>
+      </c>
+      <c r="O31" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="P31" s="24">
+        <v>3440</v>
+      </c>
+      <c r="Q31" s="24">
+        <v>375920</v>
+      </c>
+      <c r="S31" s="24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A32" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="19">
+        <v>85500</v>
+      </c>
+      <c r="C32" s="19">
+        <v>463480</v>
+      </c>
+      <c r="D32" s="20">
+        <v>85500</v>
+      </c>
+      <c r="E32" s="20">
+        <v>458780</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="H32" s="23">
+        <v>85500</v>
+      </c>
+      <c r="I32" s="23">
+        <v>456720</v>
+      </c>
+      <c r="K32" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="L32" s="22">
+        <v>85500</v>
+      </c>
+      <c r="M32" s="22">
+        <v>459110</v>
+      </c>
+      <c r="O32" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="P32" s="24">
+        <v>85500</v>
+      </c>
+      <c r="Q32" s="24">
+        <v>461420</v>
+      </c>
+      <c r="S32" s="24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A33" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="19">
+        <v>3160</v>
+      </c>
+      <c r="C33" s="19">
+        <v>466640</v>
+      </c>
+      <c r="D33" s="20">
+        <v>2950</v>
+      </c>
+      <c r="E33" s="20">
+        <v>461730</v>
+      </c>
+      <c r="H33" s="23">
+        <v>2980</v>
+      </c>
+      <c r="I33" s="23">
+        <v>459700</v>
+      </c>
+      <c r="L33" s="22">
+        <v>3080</v>
+      </c>
+      <c r="M33" s="22">
+        <v>462190</v>
+      </c>
+      <c r="P33" s="24">
+        <v>3160</v>
+      </c>
+      <c r="Q33" s="24">
+        <v>464580</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A34" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="19">
+        <v>1460</v>
+      </c>
+      <c r="C34" s="19">
+        <v>468100</v>
+      </c>
+      <c r="D34" s="20">
+        <v>1460</v>
+      </c>
+      <c r="E34" s="20">
+        <v>463190</v>
+      </c>
+      <c r="F34" s="20">
+        <v>7148400</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="H34" s="23">
+        <v>1300</v>
+      </c>
+      <c r="I34" s="23">
+        <v>461000</v>
+      </c>
+      <c r="J34" s="23">
+        <v>7165620</v>
+      </c>
+      <c r="K34" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="L34" s="22">
+        <v>1390</v>
+      </c>
+      <c r="M34" s="22">
+        <v>463580</v>
+      </c>
+      <c r="O34" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="P34" s="24">
+        <v>1390</v>
+      </c>
+      <c r="Q34" s="24">
+        <v>465970</v>
+      </c>
+      <c r="S34" s="24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A35" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="19">
+        <v>11760</v>
+      </c>
+      <c r="C35" s="19">
+        <v>479860</v>
+      </c>
+      <c r="D35" s="20">
+        <v>11760</v>
+      </c>
+      <c r="E35" s="20">
+        <v>474950</v>
+      </c>
+      <c r="H35" s="23">
+        <v>11590</v>
+      </c>
+      <c r="I35" s="23">
+        <v>472590</v>
+      </c>
+      <c r="L35" s="22">
+        <v>11730</v>
+      </c>
+      <c r="M35" s="22">
+        <v>475310</v>
+      </c>
+      <c r="P35" s="24">
+        <v>11540</v>
+      </c>
+      <c r="Q35" s="24">
+        <v>477510</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A36" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="19">
+        <v>6000</v>
+      </c>
+      <c r="C36" s="19">
+        <v>485860</v>
+      </c>
+      <c r="D36" s="20">
+        <v>5980</v>
+      </c>
+      <c r="E36" s="20">
+        <v>480930</v>
+      </c>
+      <c r="H36" s="23">
+        <v>6000</v>
+      </c>
+      <c r="I36" s="23">
+        <v>478590</v>
+      </c>
+      <c r="L36" s="22">
+        <v>5600</v>
+      </c>
+      <c r="M36" s="22">
+        <v>480910</v>
+      </c>
+      <c r="P36" s="24">
+        <v>5780</v>
+      </c>
+      <c r="Q36" s="24">
+        <v>483290</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A37" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="19">
+        <v>800</v>
+      </c>
+      <c r="C37" s="19">
+        <v>486660</v>
+      </c>
+      <c r="D37" s="20">
+        <v>800</v>
+      </c>
+      <c r="E37" s="20">
+        <v>481730</v>
+      </c>
+      <c r="F37" s="20">
+        <v>7724830</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="H37" s="23">
+        <v>790</v>
+      </c>
+      <c r="I37" s="23">
+        <v>479380</v>
+      </c>
+      <c r="J37" s="23">
+        <v>7634160</v>
+      </c>
+      <c r="K37" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="L37" s="22">
+        <v>780</v>
+      </c>
+      <c r="M37" s="22">
+        <v>481690</v>
+      </c>
+      <c r="O37" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="P37" s="24">
+        <v>760</v>
+      </c>
+      <c r="Q37" s="24">
+        <v>484050</v>
+      </c>
+      <c r="S37" s="24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A38" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="19">
+        <v>11800</v>
+      </c>
+      <c r="C38" s="19">
+        <v>498460</v>
+      </c>
+      <c r="D38" s="20">
+        <v>11520</v>
+      </c>
+      <c r="E38" s="20">
+        <v>493250</v>
+      </c>
+      <c r="H38" s="23">
+        <v>11740</v>
+      </c>
+      <c r="I38" s="23">
+        <v>491120</v>
+      </c>
+      <c r="L38" s="22">
+        <v>11800</v>
+      </c>
+      <c r="M38" s="22">
+        <v>493490</v>
+      </c>
+      <c r="P38" s="24">
+        <v>11650</v>
+      </c>
+      <c r="Q38" s="24">
+        <v>495700</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A39" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" s="19">
+        <v>5950</v>
+      </c>
+      <c r="C39" s="19">
+        <v>504410</v>
+      </c>
+      <c r="D39" s="20">
+        <v>5880</v>
+      </c>
+      <c r="E39" s="20">
+        <v>499130</v>
+      </c>
+      <c r="H39" s="23">
+        <v>5940</v>
+      </c>
+      <c r="I39" s="23">
+        <v>497060</v>
+      </c>
+      <c r="L39" s="22">
+        <v>5950</v>
+      </c>
+      <c r="M39" s="22">
+        <v>499440</v>
+      </c>
+      <c r="P39" s="24">
+        <v>5790</v>
+      </c>
+      <c r="Q39" s="24">
+        <v>501490</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A40" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" s="19">
+        <v>2780</v>
+      </c>
+      <c r="C40" s="19">
+        <v>507190</v>
+      </c>
+      <c r="D40" s="20">
+        <v>2780</v>
+      </c>
+      <c r="E40" s="20">
+        <v>501910</v>
+      </c>
+      <c r="F40" s="20">
+        <v>7034470</v>
+      </c>
+      <c r="G40" s="20">
+        <v>97627030</v>
+      </c>
+      <c r="H40" s="23">
+        <v>2520</v>
+      </c>
+      <c r="I40" s="23">
+        <v>499580</v>
+      </c>
+      <c r="J40" s="23">
+        <v>7230080</v>
+      </c>
+      <c r="K40" s="23">
+        <v>156256230</v>
+      </c>
+      <c r="L40" s="22">
+        <v>2330</v>
+      </c>
+      <c r="M40" s="22">
+        <v>501770</v>
+      </c>
+      <c r="O40" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="P40" s="24">
+        <v>2600</v>
+      </c>
+      <c r="Q40" s="24">
+        <v>504090</v>
+      </c>
+      <c r="S40" s="24">
+        <v>157424090</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A41" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A42" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B42" s="19">
+        <v>0</v>
+      </c>
+      <c r="C42" s="19">
+        <v>507190</v>
+      </c>
+      <c r="D42" s="20">
+        <v>0</v>
+      </c>
+      <c r="E42" s="20">
+        <v>501910</v>
+      </c>
+      <c r="H42" s="23">
+        <v>-50</v>
+      </c>
+      <c r="I42" s="23">
+        <v>499530</v>
+      </c>
+      <c r="L42" s="22">
+        <v>-50</v>
+      </c>
+      <c r="M42" s="22">
+        <v>501720</v>
+      </c>
+      <c r="P42" s="24">
+        <v>-40</v>
+      </c>
+      <c r="Q42" s="24">
+        <v>504050</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A43" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B43" s="19">
+        <v>5000</v>
+      </c>
+      <c r="C43" s="19">
+        <v>512190</v>
+      </c>
+      <c r="D43" s="20">
+        <v>5000</v>
+      </c>
+      <c r="E43" s="20">
+        <v>506910</v>
+      </c>
+      <c r="H43" s="23">
+        <v>5000</v>
+      </c>
+      <c r="I43" s="23">
+        <v>504530</v>
+      </c>
+      <c r="L43" s="22">
+        <v>4880</v>
+      </c>
+      <c r="M43" s="22">
+        <v>506600</v>
+      </c>
+      <c r="P43" s="24">
+        <v>5000</v>
+      </c>
+      <c r="Q43" s="24">
+        <v>509050</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A44" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44" s="19">
+        <v>4990</v>
+      </c>
+      <c r="C44" s="19">
+        <v>517180</v>
+      </c>
+      <c r="D44" s="20">
+        <v>4970</v>
+      </c>
+      <c r="E44" s="20">
+        <v>511880</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="H44" s="23">
+        <v>4830</v>
+      </c>
+      <c r="I44" s="23">
+        <v>509360</v>
+      </c>
+      <c r="K44" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="L44" s="22">
+        <v>4990</v>
+      </c>
+      <c r="M44" s="22">
+        <v>511590</v>
+      </c>
+      <c r="O44" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="P44" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q44" s="24">
+        <v>511030</v>
+      </c>
+      <c r="S44" s="24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A45" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" s="19">
+        <v>30000</v>
+      </c>
+      <c r="C45" s="19">
+        <v>547180</v>
+      </c>
+      <c r="D45" s="20">
+        <v>29790</v>
+      </c>
+      <c r="E45" s="20">
+        <v>541670</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="H45" s="23">
+        <v>29630</v>
+      </c>
+      <c r="I45" s="23">
+        <v>538990</v>
+      </c>
+      <c r="K45" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="L45" s="22">
+        <v>30000</v>
+      </c>
+      <c r="M45" s="22">
+        <v>541590</v>
+      </c>
+      <c r="O45" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="P45" s="24">
+        <v>30000</v>
+      </c>
+      <c r="Q45" s="24">
+        <v>541030</v>
+      </c>
+      <c r="S45" s="24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A46" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B46" s="19">
+        <v>4190</v>
+      </c>
+      <c r="C46" s="19">
+        <v>551370</v>
+      </c>
+      <c r="D46" s="20">
+        <v>3690</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="H46" s="23">
+        <v>4190</v>
+      </c>
+      <c r="I46" s="23">
+        <v>543180</v>
+      </c>
+      <c r="K46" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="L46" s="22">
+        <v>4160</v>
+      </c>
+      <c r="M46" s="22">
+        <v>545750</v>
+      </c>
+      <c r="O46" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="P46" s="24">
+        <v>4460</v>
+      </c>
+      <c r="Q46" s="24">
+        <v>545490</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A47" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B47" s="19">
+        <v>4540</v>
+      </c>
+      <c r="C47" s="19">
+        <v>555910</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="E47" s="20">
+        <v>549600</v>
+      </c>
+      <c r="H47" s="23">
+        <v>4450</v>
+      </c>
+      <c r="I47" s="23">
+        <v>547630</v>
+      </c>
+      <c r="L47" s="22">
+        <v>4400</v>
+      </c>
+      <c r="M47" s="22">
+        <v>550150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A48" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="B48" s="19">
+        <v>3220</v>
+      </c>
+      <c r="C48" s="19">
+        <v>559130</v>
+      </c>
+      <c r="D48" s="20">
+        <v>3910</v>
+      </c>
+      <c r="E48" s="20">
+        <v>553510</v>
+      </c>
+      <c r="H48" s="23">
+        <v>3220</v>
+      </c>
+      <c r="I48" s="23">
+        <v>550850</v>
+      </c>
+      <c r="L48" s="22">
+        <v>2760</v>
+      </c>
+      <c r="M48" s="22">
+        <v>552910</v>
+      </c>
+      <c r="P48" s="24">
+        <v>3200</v>
+      </c>
+      <c r="Q48" s="24">
+        <v>548690</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A49" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B49" s="19">
+        <v>6530</v>
+      </c>
+      <c r="C49" s="19">
+        <v>565660</v>
+      </c>
+      <c r="D49" s="20">
+        <v>4960</v>
+      </c>
+      <c r="E49" s="20">
+        <v>558470</v>
+      </c>
+      <c r="H49" s="23">
+        <v>3980</v>
+      </c>
+      <c r="I49" s="23">
+        <v>554830</v>
+      </c>
+      <c r="L49" s="22">
+        <v>6530</v>
+      </c>
+      <c r="M49" s="22">
+        <v>559440</v>
+      </c>
+      <c r="P49" s="24">
+        <v>6430</v>
+      </c>
+      <c r="Q49" s="24">
+        <v>555120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A50" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B50" s="19">
+        <v>5630</v>
+      </c>
+      <c r="C50" s="19">
+        <v>571290</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="H50" s="23">
+        <v>5630</v>
+      </c>
+      <c r="I50" s="23">
+        <v>560460</v>
+      </c>
+      <c r="K50" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="L50" s="22">
+        <v>1890</v>
+      </c>
+      <c r="M50" s="22">
+        <v>561330</v>
+      </c>
+      <c r="O50" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="P50" s="24">
+        <v>4880</v>
+      </c>
+      <c r="Q50" s="24">
+        <v>560000</v>
+      </c>
+      <c r="S50" s="24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A51" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" s="19">
+        <v>50000</v>
+      </c>
+      <c r="C51" s="19">
+        <v>621290</v>
+      </c>
+      <c r="D51" s="20">
+        <v>50000</v>
+      </c>
+      <c r="E51" s="20">
+        <v>610800</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="H51" s="23">
+        <v>50000</v>
+      </c>
+      <c r="I51" s="23">
+        <v>610460</v>
+      </c>
+      <c r="K51" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="L51" s="22">
+        <v>50000</v>
+      </c>
+      <c r="M51" s="22">
+        <v>611330</v>
+      </c>
+      <c r="O51" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="P51" s="24">
+        <v>50000</v>
+      </c>
+      <c r="Q51" s="24">
+        <v>610000</v>
+      </c>
+      <c r="S51" s="24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A52" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B52" s="19">
+        <v>36580</v>
+      </c>
+      <c r="C52" s="19">
+        <v>657180</v>
+      </c>
+      <c r="D52" s="20">
+        <v>36580</v>
+      </c>
+      <c r="E52" s="20">
+        <v>647380</v>
+      </c>
+      <c r="H52" s="23">
+        <v>33230</v>
+      </c>
+      <c r="I52" s="23">
+        <v>643690</v>
+      </c>
+      <c r="L52" s="22">
+        <v>35560</v>
+      </c>
+      <c r="M52" s="22">
+        <v>646890</v>
+      </c>
+      <c r="P52" s="24">
+        <v>38720</v>
+      </c>
+      <c r="Q52" s="24">
+        <v>648720</v>
+      </c>
+      <c r="S52" s="24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A53" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" s="19">
+        <v>990</v>
+      </c>
+      <c r="C53" s="19">
+        <v>658180</v>
+      </c>
+      <c r="D53" s="20">
+        <v>990</v>
+      </c>
+      <c r="E53" s="20">
+        <v>648370</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="H53" s="23">
+        <v>900</v>
+      </c>
+      <c r="I53" s="23">
+        <v>644590</v>
+      </c>
+      <c r="K53" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="L53" s="22">
+        <v>300</v>
+      </c>
+      <c r="M53" s="22">
+        <v>647190</v>
+      </c>
+      <c r="O53" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="P53" s="24">
+        <v>200</v>
+      </c>
+      <c r="Q53" s="24">
+        <v>648920</v>
+      </c>
+      <c r="S53" s="24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A54" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" s="19">
+        <v>1520</v>
+      </c>
+      <c r="C54" s="19">
+        <v>659600</v>
+      </c>
+      <c r="D54" s="20">
+        <v>1210</v>
+      </c>
+      <c r="E54" s="20">
+        <v>649580</v>
+      </c>
+      <c r="H54" s="23">
+        <v>1340</v>
+      </c>
+      <c r="I54" s="23">
+        <v>645930</v>
+      </c>
+      <c r="L54" s="22">
+        <v>1520</v>
+      </c>
+      <c r="M54" s="22">
+        <v>648710</v>
+      </c>
+      <c r="P54" s="24">
+        <v>1490</v>
+      </c>
+      <c r="Q54" s="24">
+        <v>650410</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A55" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" s="19">
+        <v>710</v>
+      </c>
+      <c r="C55" s="19">
+        <v>660310</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="E55" s="20">
+        <v>650270</v>
+      </c>
+      <c r="F55" s="20">
+        <v>11716190</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="H55" s="23">
+        <v>660</v>
+      </c>
+      <c r="I55" s="23">
+        <v>646590</v>
+      </c>
+      <c r="J55" s="23">
+        <v>11584650</v>
+      </c>
+      <c r="K55" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="L55" s="22">
+        <v>660</v>
+      </c>
+      <c r="M55" s="22">
+        <v>649370</v>
+      </c>
+      <c r="O55" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="P55" s="24">
+        <v>670</v>
+      </c>
+      <c r="Q55" s="24">
+        <v>651080</v>
+      </c>
+      <c r="S55" s="24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A56" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="19">
+        <v>4970</v>
+      </c>
+      <c r="C56" s="19">
+        <v>665280</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="E56" s="20">
+        <v>654970</v>
+      </c>
+      <c r="H56" s="23">
+        <v>4830</v>
+      </c>
+      <c r="I56" s="23">
+        <v>651420</v>
+      </c>
+      <c r="L56" s="22">
+        <v>4720</v>
+      </c>
+      <c r="M56" s="22">
+        <v>654090</v>
+      </c>
+      <c r="P56" s="24">
+        <v>4520</v>
+      </c>
+      <c r="Q56" s="24">
+        <v>655600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A57" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" s="19">
+        <v>7070</v>
+      </c>
+      <c r="C57" s="19">
+        <v>672350</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E57" s="20">
+        <v>661940</v>
+      </c>
+      <c r="F57" s="20">
+        <v>10798760</v>
+      </c>
+      <c r="G57" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="H57" s="23">
+        <v>6660</v>
+      </c>
+      <c r="I57" s="23">
+        <v>658080</v>
+      </c>
+      <c r="J57" s="23">
+        <v>10849820</v>
+      </c>
+      <c r="K57" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="L57" s="22">
+        <v>6520</v>
+      </c>
+      <c r="M57" s="22">
+        <v>660610</v>
+      </c>
+      <c r="O57" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="P57" s="24">
+        <v>6810</v>
+      </c>
+      <c r="Q57" s="24">
+        <v>662410</v>
+      </c>
+      <c r="S57" s="24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A58" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B58" s="19">
+        <v>8530</v>
+      </c>
+      <c r="C58" s="19">
+        <v>680880</v>
+      </c>
+      <c r="D58" s="20">
+        <v>7830</v>
+      </c>
+      <c r="E58" s="20">
+        <v>669770</v>
+      </c>
+      <c r="H58" s="23">
+        <v>8530</v>
+      </c>
+      <c r="I58" s="23">
+        <v>666610</v>
+      </c>
+      <c r="L58" s="22">
+        <v>7910</v>
+      </c>
+      <c r="M58" s="22">
+        <v>668520</v>
+      </c>
+      <c r="P58" s="24">
+        <v>8420</v>
+      </c>
+      <c r="Q58" s="24">
+        <v>670830</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A59" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" s="19">
+        <v>6060</v>
+      </c>
+      <c r="C59" s="19">
+        <v>686940</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E59" s="20">
+        <v>674600</v>
+      </c>
+      <c r="H59" s="23">
+        <v>5770</v>
+      </c>
+      <c r="I59" s="23">
+        <v>672380</v>
+      </c>
+      <c r="L59" s="22">
+        <v>5830</v>
+      </c>
+      <c r="M59" s="22">
+        <v>674350</v>
+      </c>
+      <c r="P59" s="24">
+        <v>5520</v>
+      </c>
+      <c r="Q59" s="24">
+        <v>676350</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A60" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B60" s="19">
+        <v>1580</v>
+      </c>
+      <c r="C60" s="19">
+        <v>688450</v>
+      </c>
+      <c r="D60" s="20">
+        <v>1580</v>
+      </c>
+      <c r="E60" s="20">
+        <v>676180</v>
+      </c>
+      <c r="F60" s="20">
+        <v>11759940</v>
+      </c>
+      <c r="G60" s="20">
+        <v>242311480</v>
+      </c>
+      <c r="H60" s="23">
+        <v>1510</v>
+      </c>
+      <c r="I60" s="23">
+        <v>673890</v>
+      </c>
+      <c r="J60" s="23">
+        <v>11631810</v>
+      </c>
+      <c r="K60" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="L60" s="22">
+        <v>1470</v>
+      </c>
+      <c r="M60" s="22">
+        <v>675820</v>
+      </c>
+      <c r="O60" s="22">
+        <v>398753510</v>
+      </c>
+      <c r="P60" s="24">
+        <v>1510</v>
+      </c>
+      <c r="Q60" s="24">
+        <v>677860</v>
+      </c>
+      <c r="S60" s="24">
+        <v>399908570</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A61" s="19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A62" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="E62" s="20">
+        <v>731560</v>
+      </c>
+      <c r="H62" s="23">
+        <v>55630</v>
+      </c>
+      <c r="I62" s="23">
+        <v>729520</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A63" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E63" s="20">
+        <v>739280</v>
+      </c>
+      <c r="G63" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="H63" s="23">
+        <v>8390</v>
+      </c>
+      <c r="I63" s="23">
+        <v>737910</v>
+      </c>
+      <c r="K63" s="23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A64" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="E64" s="20">
+        <v>759280</v>
+      </c>
+      <c r="H64" s="23">
+        <v>18890</v>
+      </c>
+      <c r="I64" s="23">
+        <v>756800</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A65" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="E65" s="20">
+        <v>758450</v>
+      </c>
+      <c r="H65" s="23">
+        <v>0</v>
+      </c>
+      <c r="I65" s="23">
+        <v>756800</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A66" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="E66" s="20">
+        <v>798680</v>
+      </c>
+      <c r="G66" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="H66" s="23">
+        <v>39640</v>
+      </c>
+      <c r="I66" s="23">
+        <v>796440</v>
+      </c>
+      <c r="K66" s="23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A67" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="E67" s="20">
+        <v>801180</v>
+      </c>
+      <c r="H67" s="23">
+        <v>2420</v>
+      </c>
+      <c r="I67" s="23">
+        <v>798860</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A68" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="E68" s="20">
+        <v>807160</v>
+      </c>
+      <c r="F68" s="20">
+        <v>11783640</v>
+      </c>
+      <c r="G68" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="H68" s="23">
+        <v>5710</v>
+      </c>
+      <c r="I68" s="23">
+        <v>804570</v>
+      </c>
+      <c r="J68" s="23">
+        <v>11772380</v>
+      </c>
+      <c r="K68" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A69" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="E69" s="20">
+        <v>825330</v>
+      </c>
+      <c r="H69" s="23">
+        <v>13250</v>
+      </c>
+      <c r="I69" s="23">
+        <v>817820</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A70" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E70" s="20">
+        <v>858320</v>
+      </c>
+      <c r="G70" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="H70" s="23">
+        <v>22860</v>
+      </c>
+      <c r="I70" s="23">
+        <v>840680</v>
+      </c>
+      <c r="K70" s="23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A71" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E71" s="20">
+        <v>868010</v>
+      </c>
+      <c r="H71" s="23">
+        <v>19700</v>
+      </c>
+      <c r="I71" s="23">
+        <v>860380</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A72" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="E72" s="20">
+        <v>928310</v>
+      </c>
+      <c r="G72" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="H72" s="23">
+        <v>65300</v>
+      </c>
+      <c r="I72" s="23">
+        <v>925680</v>
+      </c>
+      <c r="K72" s="23" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A73" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="E73" s="20">
+        <v>931430</v>
+      </c>
+      <c r="H73" s="23">
+        <v>3060</v>
+      </c>
+      <c r="I73" s="23">
+        <v>928740</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A74" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="E74" s="20">
+        <v>937650</v>
+      </c>
+      <c r="F74" s="20">
+        <v>20050710</v>
+      </c>
+      <c r="G74" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="H74" s="23">
+        <v>6190</v>
+      </c>
+      <c r="I74" s="23">
+        <v>934930</v>
+      </c>
+      <c r="J74" s="23">
+        <v>20002080</v>
+      </c>
+      <c r="K74" s="23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A75" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="E75" s="20">
+        <v>942330</v>
+      </c>
+      <c r="H75" s="23">
+        <v>4080</v>
+      </c>
+      <c r="I75" s="23">
+        <v>939010</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A76" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="E76" s="20">
+        <v>953820</v>
+      </c>
+      <c r="F76" s="20">
+        <v>19464900</v>
+      </c>
+      <c r="G76" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="H76" s="23">
+        <v>11890</v>
+      </c>
+      <c r="I76" s="23">
+        <v>950900</v>
+      </c>
+      <c r="J76" s="23">
+        <v>19447450</v>
+      </c>
+      <c r="K76" s="23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A77" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="E77" s="20">
+        <v>961260</v>
+      </c>
+      <c r="H77" s="23">
+        <v>7120</v>
+      </c>
+      <c r="I77" s="23">
+        <v>958020</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A78" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="E78" s="20">
+        <v>965790</v>
+      </c>
+      <c r="H78" s="23">
+        <v>4620</v>
+      </c>
+      <c r="I78" s="23">
+        <v>962640</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A79" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="E79" s="20">
+        <v>970340</v>
+      </c>
+      <c r="F79" s="20">
+        <v>20568300</v>
+      </c>
+      <c r="H79" s="23">
+        <v>4990</v>
+      </c>
+      <c r="I79" s="23">
+        <v>967630</v>
+      </c>
+      <c r="J79" s="23">
+        <v>20461070</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A80" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="E80" s="20">
+        <v>974780</v>
+      </c>
+      <c r="F80" s="20">
+        <v>19408900</v>
+      </c>
+      <c r="G80" s="20">
+        <v>457015350</v>
+      </c>
+      <c r="H80" s="23">
+        <v>4440</v>
+      </c>
+      <c r="I80" s="23">
+        <v>972070</v>
+      </c>
+      <c r="J80" s="23">
+        <v>19349810</v>
+      </c>
+      <c r="K80" s="23">
+        <v>854633340</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A81" s="19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A82" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="E82" s="20">
+        <v>994980</v>
+      </c>
+      <c r="G82" s="20" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A83" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="E83" s="20">
+        <v>996340</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A84" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="E84" s="20">
+        <v>998240</v>
+      </c>
+      <c r="F84" s="20">
+        <v>23113430</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A85" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="E85" s="20">
+        <v>999990</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A86" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="F86" s="20">
+        <v>23506670</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A87" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="F87" s="20">
+        <v>20500990</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A88" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="F88" s="20">
+        <v>22528670</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A89" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="F89" s="20">
+        <v>18899520</v>
+      </c>
+      <c r="G89" s="20">
+        <v>413698050</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/各种单面推把记录.xlsx
+++ b/各种单面推把记录.xlsx
@@ -9,14 +9,15 @@
   <sheets>
     <sheet name="神灵庙H妖梦" sheetId="1" r:id="rId1"/>
     <sheet name="神灵庙H妖梦新路线" sheetId="2" r:id="rId2"/>
-    <sheet name="风E梦A" sheetId="3" r:id="rId3"/>
+    <sheet name="庙L妖梦" sheetId="4" r:id="rId3"/>
+    <sheet name="风E梦A" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="300">
   <si>
     <t>火力</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1185,6 +1186,30 @@
   </si>
   <si>
     <t>二非</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-7/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34323720</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1209,7 +1234,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1270,6 +1295,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1285,7 +1316,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1366,6 +1397,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1674,7 +1711,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2925,11 +2962,224 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="9" style="28"/>
+    <col min="9" max="9" width="10.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="17.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="27"/>
+      <c r="I1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/各种单面推把记录.xlsx
+++ b/各种单面推把记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="8310" windowHeight="1455" tabRatio="371" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="8310" windowHeight="1455" tabRatio="371" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="神灵庙H妖梦" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="301">
   <si>
     <t>火力</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1177,10 +1177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15390xxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一非</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1210,6 +1206,14 @@
   </si>
   <si>
     <t>34323720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15394xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22807020(23113430)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2964,7 +2968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -3035,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -3057,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -3079,7 +3083,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -3101,7 +3105,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -3123,7 +3127,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -3145,7 +3149,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -3156,7 +3160,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -3177,9 +3181,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A13" sqref="A13:XFD13"/>
+      <selection pane="topRight" activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3330,11 +3334,11 @@
         <v>457015350</v>
       </c>
       <c r="N3" s="21">
-        <v>683697050</v>
+        <v>684407290</v>
       </c>
       <c r="O3" s="21">
         <f>SUM(I3:N3)</f>
-        <v>1538971000</v>
+        <v>1539681240</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.15">
@@ -5920,18 +5924,18 @@
         <v>278</v>
       </c>
       <c r="E82" s="20">
-        <v>994980</v>
+        <v>997440</v>
       </c>
       <c r="G82" s="20" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E83" s="20">
-        <v>996340</v>
+        <v>998810</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
@@ -5939,18 +5943,15 @@
         <v>279</v>
       </c>
       <c r="E84" s="20">
-        <v>998240</v>
-      </c>
-      <c r="F84" s="20">
-        <v>23113430</v>
+        <v>999990</v>
+      </c>
+      <c r="F84" s="20" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="E85" s="20">
-        <v>999990</v>
+        <v>292</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
@@ -5958,7 +5959,7 @@
         <v>280</v>
       </c>
       <c r="F86" s="20">
-        <v>23506670</v>
+        <v>23671290</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
@@ -5966,7 +5967,7 @@
         <v>281</v>
       </c>
       <c r="F87" s="20">
-        <v>20500990</v>
+        <v>20539810</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
@@ -5974,7 +5975,7 @@
         <v>282</v>
       </c>
       <c r="F88" s="20">
-        <v>22528670</v>
+        <v>22905220</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
@@ -5982,10 +5983,10 @@
         <v>283</v>
       </c>
       <c r="F89" s="20">
-        <v>18899520</v>
+        <v>19444720</v>
       </c>
       <c r="G89" s="20">
-        <v>413698050</v>
+        <v>414408290</v>
       </c>
     </row>
   </sheetData>

--- a/各种单面推把记录.xlsx
+++ b/各种单面推把记录.xlsx
@@ -3181,9 +3181,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A60" activeCellId="2" sqref="A45:XFD45 A53:XFD53 A60:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/各种单面推把记录.xlsx
+++ b/各种单面推把记录.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="422">
   <si>
     <t>火力</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1601,6 +1601,106 @@
   </si>
   <si>
     <t>60300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>944990</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20255890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>950250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78164xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>953690</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19227000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>964980</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81923xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>971540</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>975430</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20748590</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>980260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19570980</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>984740</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>995650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101366xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21418880</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106204xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23637930</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111169xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20740380</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116445xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22759030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125322xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19291020</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3581,8 +3681,8 @@
   <dimension ref="A1:AF88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R63" sqref="R63"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3591,7 +3691,7 @@
     <col min="2" max="2" width="12.625" style="21" customWidth="1"/>
     <col min="3" max="4" width="9.875" style="21" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="22" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="22" customWidth="1"/>
     <col min="7" max="7" width="9.625" style="22" customWidth="1"/>
     <col min="8" max="8" width="10.5" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="23" customWidth="1"/>
@@ -6664,6 +6764,9 @@
       <c r="N66" s="18">
         <v>928740</v>
       </c>
+      <c r="R66" s="24" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A67" s="21" t="s">
@@ -6702,6 +6805,15 @@
       <c r="P67" s="18" t="s">
         <v>235</v>
       </c>
+      <c r="R67" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="S67" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="T67" s="24" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A68" s="21" t="s">
@@ -6722,6 +6834,9 @@
       <c r="N68" s="18">
         <v>939010</v>
       </c>
+      <c r="R68" s="24" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A69" s="21" t="s">
@@ -6760,6 +6875,15 @@
       <c r="P69" s="18" t="s">
         <v>236</v>
       </c>
+      <c r="R69" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="S69" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="T69" s="24" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A70" s="21" t="s">
@@ -6780,6 +6904,9 @@
       <c r="N70" s="18">
         <v>958020</v>
       </c>
+      <c r="R70" s="24" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A71" s="21" t="s">
@@ -6800,6 +6927,9 @@
       <c r="N71" s="18">
         <v>962640</v>
       </c>
+      <c r="R71" s="24" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A72" s="21" t="s">
@@ -6829,6 +6959,12 @@
       <c r="O72" s="18">
         <v>20461070</v>
       </c>
+      <c r="R72" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="S72" s="24" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A73" s="21" t="s">
@@ -6867,6 +7003,12 @@
       <c r="P73" s="18">
         <v>854633340</v>
       </c>
+      <c r="R73" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="S73" s="24" t="s">
+        <v>409</v>
+      </c>
       <c r="T73" s="24" t="s">
         <v>334</v>
       </c>
@@ -6901,6 +7043,12 @@
       <c r="P75" s="18" t="s">
         <v>321</v>
       </c>
+      <c r="R75" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="T75" s="24" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A76" s="21" t="s">
@@ -6932,6 +7080,12 @@
       <c r="P77" s="18" t="s">
         <v>322</v>
       </c>
+      <c r="S77" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="T77" s="24" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A78" s="21" t="s">
@@ -6957,6 +7111,12 @@
       <c r="P79" s="18" t="s">
         <v>323</v>
       </c>
+      <c r="S79" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="T79" s="24" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A80" s="21" t="s">
@@ -6977,6 +7137,12 @@
       <c r="P80" s="18" t="s">
         <v>324</v>
       </c>
+      <c r="S80" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="T80" s="24" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A81" s="21" t="s">
@@ -6997,6 +7163,12 @@
       <c r="P81" s="18" t="s">
         <v>325</v>
       </c>
+      <c r="S81" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="T81" s="24" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A82" s="21" t="s">
@@ -7019,6 +7191,9 @@
       </c>
       <c r="P82" s="18" t="s">
         <v>331</v>
+      </c>
+      <c r="S82" s="24" t="s">
+        <v>421</v>
       </c>
       <c r="T82" s="24" t="s">
         <v>335</v>

--- a/各种单面推把记录.xlsx
+++ b/各种单面推把记录.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="432">
   <si>
     <t>火力</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1701,6 +1701,46 @@
   </si>
   <si>
     <t>19291020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111850</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>122450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127660</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>129930</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>132310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135820</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>138270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140440</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3680,9 +3720,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A47" sqref="A47:XFD47"/>
+      <selection pane="topRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3895,11 +3935,11 @@
       <c r="A4" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="21">
-        <v>1210</v>
-      </c>
-      <c r="C4" s="21">
-        <v>111830</v>
+      <c r="B4" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>423</v>
       </c>
       <c r="E4" s="22">
         <v>1160</v>
@@ -3939,8 +3979,8 @@
       <c r="B5" s="21">
         <v>10600</v>
       </c>
-      <c r="C5" s="21">
-        <v>122430</v>
+      <c r="C5" s="21" t="s">
+        <v>424</v>
       </c>
       <c r="E5" s="22">
         <v>10600</v>
@@ -3995,8 +4035,8 @@
       <c r="B6" s="21">
         <v>2600</v>
       </c>
-      <c r="C6" s="21">
-        <v>125030</v>
+      <c r="C6" s="21" t="s">
+        <v>425</v>
       </c>
       <c r="E6" s="22">
         <v>2500</v>
@@ -4036,8 +4076,8 @@
       <c r="B7" s="21">
         <v>2610</v>
       </c>
-      <c r="C7" s="21">
-        <v>127640</v>
+      <c r="C7" s="21" t="s">
+        <v>426</v>
       </c>
       <c r="E7" s="22">
         <v>2600</v>
@@ -4077,8 +4117,8 @@
       <c r="B8" s="21">
         <v>2270</v>
       </c>
-      <c r="C8" s="21">
-        <v>129910</v>
+      <c r="C8" s="21" t="s">
+        <v>427</v>
       </c>
       <c r="E8" s="22">
         <v>1980</v>
@@ -4118,8 +4158,8 @@
       <c r="B9" s="21">
         <v>2380</v>
       </c>
-      <c r="C9" s="21">
-        <v>132290</v>
+      <c r="C9" s="21" t="s">
+        <v>428</v>
       </c>
       <c r="D9" s="21">
         <v>1219870</v>
@@ -4189,8 +4229,8 @@
       <c r="B10" s="21">
         <v>3510</v>
       </c>
-      <c r="C10" s="21">
-        <v>135800</v>
+      <c r="C10" s="21" t="s">
+        <v>429</v>
       </c>
       <c r="E10" s="22">
         <v>3460</v>
@@ -4230,8 +4270,8 @@
       <c r="B11" s="21">
         <v>2450</v>
       </c>
-      <c r="C11" s="21">
-        <v>138250</v>
+      <c r="C11" s="21" t="s">
+        <v>430</v>
       </c>
       <c r="E11" s="22">
         <v>2330</v>
@@ -4271,8 +4311,8 @@
       <c r="B12" s="21">
         <v>2170</v>
       </c>
-      <c r="C12" s="21">
-        <v>140420</v>
+      <c r="C12" s="21" t="s">
+        <v>431</v>
       </c>
       <c r="D12" s="21">
         <v>1262410</v>

--- a/各种单面推把记录.xlsx
+++ b/各种单面推把记录.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="8310" windowHeight="1455" tabRatio="371" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="8310" windowHeight="1455" tabRatio="371" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="神灵庙H妖梦" sheetId="1" r:id="rId1"/>
     <sheet name="神灵庙H妖梦新路线" sheetId="2" r:id="rId2"/>
     <sheet name="庙L妖梦" sheetId="4" r:id="rId3"/>
     <sheet name="风E梦A" sheetId="3" r:id="rId4"/>
+    <sheet name="天N笨蛋夏" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="464">
   <si>
     <t>火力</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1741,6 +1742,134 @@
   </si>
   <si>
     <t>140440</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中boss结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道中结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一非</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二非</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82960</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16203470</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,230,390,590,840,1140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50852250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>278630</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164765440</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1748,7 +1877,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1763,6 +1892,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1859,7 +1995,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1945,6 +2081,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3254,7 +3393,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection sqref="A1:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3720,9 +3859,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C12" sqref="C12"/>
+      <selection pane="topRight" sqref="A1:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7386,4 +7525,199 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.375" style="8" customWidth="1"/>
+    <col min="2" max="3" width="9" style="8"/>
+    <col min="4" max="4" width="10.75" style="8" customWidth="1"/>
+    <col min="5" max="6" width="9" style="8"/>
+    <col min="7" max="7" width="11.875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9" style="8"/>
+    <col min="9" max="9" width="13.125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="B1" s="29"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/各种单面推把记录.xlsx
+++ b/各种单面推把记录.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="8310" windowHeight="1455" tabRatio="371" activeTab="4"/>
@@ -11,14 +11,14 @@
     <sheet name="神灵庙H妖梦新路线" sheetId="2" r:id="rId2"/>
     <sheet name="庙L妖梦" sheetId="4" r:id="rId3"/>
     <sheet name="风E梦A" sheetId="3" r:id="rId4"/>
-    <sheet name="天N笨蛋夏" sheetId="5" r:id="rId5"/>
+    <sheet name="绀n兔子" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="450">
   <si>
     <t>火力</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1749,7 +1749,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>残</t>
+    <t>章节擦弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出一面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出二面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出三面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出四面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出五面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1757,119 +1789,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>季节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中boss结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道中结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一非</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二非</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>82960</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16203470</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,230,390,590,840,1140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>750</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50852250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>278630</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>164765440</t>
+    <t>残/碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kisara</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击破率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1877,7 +1821,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1893,15 +1837,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1980,6 +1917,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1995,7 +1938,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2083,8 +2026,11 @@
     <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3861,7 +3807,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:A12"/>
+      <selection pane="topRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7529,193 +7475,142 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="8" customWidth="1"/>
-    <col min="2" max="3" width="9" style="8"/>
-    <col min="4" max="4" width="10.75" style="8" customWidth="1"/>
-    <col min="5" max="6" width="9" style="8"/>
-    <col min="7" max="7" width="11.875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9" style="8"/>
-    <col min="9" max="9" width="13.125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="10.625" style="4" customWidth="1"/>
+    <col min="4" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="9" style="29"/>
+    <col min="8" max="8" width="11.25" style="29" customWidth="1"/>
+    <col min="9" max="11" width="9" style="29"/>
+    <col min="12" max="12" width="9" style="30"/>
+    <col min="13" max="13" width="10.875" style="30" customWidth="1"/>
+    <col min="14" max="16" width="9" style="30"/>
+    <col min="17" max="17" width="9" style="3"/>
+    <col min="18" max="18" width="11.375" style="3" customWidth="1"/>
+    <col min="19" max="21" width="9" style="3"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
-        <v>451</v>
-      </c>
-      <c r="B1" s="29"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B1" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B5" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B6" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+      <c r="F6" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G6" s="29" t="s">
         <v>433</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+      <c r="H6" s="29" t="s">
+        <v>449</v>
+      </c>
+      <c r="I6" s="29" t="s">
         <v>434</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+      <c r="J6" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="K6" s="29" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="L6" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="M6" s="30" t="s">
         <v>449</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>463</v>
+      <c r="N6" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="O6" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="P6" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>436</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/各种单面推把记录.xlsx
+++ b/各种单面推把记录.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="473">
   <si>
     <t>火力</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1769,6 +1769,142 @@
   </si>
   <si>
     <t>kisara</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白灵数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃黄蓝点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃白蓝点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leo妖梦40.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三队小妖精+一只大蝴蝶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道中boss开c前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白灵累计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝点累计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增援结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道中结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一符开c前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c完二非结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常夜樱开c前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一面结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/7/8-0/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二开自杀结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三队阴阳玉结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c结束吃完道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴阳玉阵开c前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道中boss开c前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中boss结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后半道中开c前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道中结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一符开c前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终符开c前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二面结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1881,7 +2017,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1943,6 +2079,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3251,7 +3390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF88"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A87" sqref="A87"/>
     </sheetView>
@@ -7059,12 +7198,511 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B1" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H2" t="s">
+        <v>451</v>
+      </c>
+      <c r="I2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4">
+        <v>20430</v>
+      </c>
+      <c r="D4">
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <v>31</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B5">
+        <v>21120</v>
+      </c>
+      <c r="D5">
+        <v>47</v>
+      </c>
+      <c r="E5">
+        <v>78</v>
+      </c>
+      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B6">
+        <v>21340</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>84</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B7">
+        <v>31600</v>
+      </c>
+      <c r="D7">
+        <v>93</v>
+      </c>
+      <c r="E7">
+        <v>177</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>453</v>
+      </c>
+      <c r="B8">
+        <v>31810</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>178</v>
+      </c>
+      <c r="F8">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B9">
+        <v>33080</v>
+      </c>
+      <c r="D9">
+        <v>58</v>
+      </c>
+      <c r="E9">
+        <v>236</v>
+      </c>
+      <c r="F9">
+        <v>52</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>455</v>
+      </c>
+      <c r="B10">
+        <v>33940</v>
+      </c>
+      <c r="D10">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>456</v>
+      </c>
+      <c r="B11">
+        <v>45360</v>
+      </c>
+      <c r="D11">
+        <v>133</v>
+      </c>
+      <c r="E11">
+        <v>404</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>457</v>
+      </c>
+      <c r="B12">
+        <v>46730</v>
+      </c>
+      <c r="D12">
+        <v>117</v>
+      </c>
+      <c r="E12">
+        <v>521</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>452</v>
+      </c>
+      <c r="B13">
+        <v>58010</v>
+      </c>
+      <c r="D13">
+        <v>128</v>
+      </c>
+      <c r="E13">
+        <v>649</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>458</v>
+      </c>
+      <c r="B14">
+        <v>58570</v>
+      </c>
+      <c r="D14">
+        <v>38</v>
+      </c>
+      <c r="E14">
+        <v>687</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>459</v>
+      </c>
+      <c r="C15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>461</v>
+      </c>
+      <c r="B16">
+        <v>63570</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>462</v>
+      </c>
+      <c r="B17">
+        <v>64220</v>
+      </c>
+      <c r="D17">
+        <v>127</v>
+      </c>
+      <c r="E17">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>464</v>
+      </c>
+      <c r="B18">
+        <v>64870</v>
+      </c>
+      <c r="D18">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>839</v>
+      </c>
+      <c r="F18">
+        <v>36</v>
+      </c>
+      <c r="H18">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>463</v>
+      </c>
+      <c r="B19">
+        <v>82080</v>
+      </c>
+      <c r="D19">
+        <v>160</v>
+      </c>
+      <c r="E19">
+        <v>999</v>
+      </c>
+      <c r="F19">
+        <v>18</v>
+      </c>
+      <c r="H19">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>465</v>
+      </c>
+      <c r="B20">
+        <v>83280</v>
+      </c>
+      <c r="D20">
+        <v>94</v>
+      </c>
+      <c r="E20">
+        <v>1093</v>
+      </c>
+      <c r="F20">
+        <v>27</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>466</v>
+      </c>
+      <c r="B21">
+        <v>95300</v>
+      </c>
+      <c r="D21">
+        <v>143</v>
+      </c>
+      <c r="E21">
+        <v>1236</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>468</v>
+      </c>
+      <c r="B22">
+        <v>96550</v>
+      </c>
+      <c r="D22">
+        <v>65</v>
+      </c>
+      <c r="E22">
+        <v>1301</v>
+      </c>
+      <c r="F22">
+        <v>72</v>
+      </c>
+      <c r="H22">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>469</v>
+      </c>
+      <c r="B23">
+        <v>107460</v>
+      </c>
+      <c r="D23">
+        <v>97</v>
+      </c>
+      <c r="E23">
+        <v>1398</v>
+      </c>
+      <c r="F23">
+        <v>56</v>
+      </c>
+      <c r="H23">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>470</v>
+      </c>
+      <c r="B24">
+        <v>109710</v>
+      </c>
+      <c r="D24">
+        <v>76</v>
+      </c>
+      <c r="E24">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>467</v>
+      </c>
+      <c r="B25">
+        <v>119990</v>
+      </c>
+      <c r="D25">
+        <v>118</v>
+      </c>
+      <c r="E25">
+        <v>1592</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>471</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+      <c r="H26">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>472</v>
+      </c>
+      <c r="B27">
+        <v>132260</v>
+      </c>
+      <c r="E27">
+        <v>1825</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>450</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
